--- a/biology/Zoologie/Hua_Mei/Hua_Mei.xlsx
+++ b/biology/Zoologie/Hua_Mei/Hua_Mei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hua Mei (chinois : 华美) est un panda géant femelle né le 21 août 1999. Progéniture de Bai Yun (mère) et Shi Shi (père) au zoo de San Diego, l'animal est le premier panda géant à survivre jusqu'à l'âge adulte aux États-Unis. Des millions de personnes dans le monde ont vu grandir Hua Mei via la Panda Cam du zoo.
 Hua Mei est la demi-sœur aînée de cinq autres petits nés de Bai Yun : Mei Sheng, Su Lin, Zhen Zhen, Yun Zi et Xiao Liwu. Le père de ces petits est Gao Gao.
-En février 2004, après avoir atteint l'âge adulte, Hua Mei fut transférée dans la réserve de Wolong, dans la province du Sichuan, en Chine. Jusqu'à 2007, elle donna naissance à 3 paires de jumeaux : les jumeaux mâles Tuan Tuan et Mei Ling le 1er septembre 2004, les jumeaux mâle / femelle Wei Wei et Ting Ting le 29 août 2005 et les jumeaux mâles Hua Long et Hua Ao, le 16 juillet 2007[1],[2],[3].
-Après le tremblement de terre de 2008 au Sichuan qui endommagea une grande partie de l'installation de pandas géants à Wolong, Hua Mei fut transférée à la base des pandas de Bifengxia à Ya'an. En juillet 2009, Hua Mei donna naissance à une femelle nommée Hao Hao[4]. Hua Mei mit ensuite au monde son huitième petit, un mâle nommé Yang Hu en septembre 2010. Puis elle donna naissance à son neuvième petit, une femelle nommée Jia Jia en août 2012 et un dixième petit, un mâle, en juillet 2013[5],[6].
+En février 2004, après avoir atteint l'âge adulte, Hua Mei fut transférée dans la réserve de Wolong, dans la province du Sichuan, en Chine. Jusqu'à 2007, elle donna naissance à 3 paires de jumeaux : les jumeaux mâles Tuan Tuan et Mei Ling le 1er septembre 2004, les jumeaux mâle / femelle Wei Wei et Ting Ting le 29 août 2005 et les jumeaux mâles Hua Long et Hua Ao, le 16 juillet 2007.
+Après le tremblement de terre de 2008 au Sichuan qui endommagea une grande partie de l'installation de pandas géants à Wolong, Hua Mei fut transférée à la base des pandas de Bifengxia à Ya'an. En juillet 2009, Hua Mei donna naissance à une femelle nommée Hao Hao. Hua Mei mit ensuite au monde son huitième petit, un mâle nommé Yang Hu en septembre 2010. Puis elle donna naissance à son neuvième petit, une femelle nommée Jia Jia en août 2012 et un dixième petit, un mâle, en juillet 2013,.
 </t>
         </is>
       </c>
